--- a/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
+++ b/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="303">
   <si>
     <t>PERIOD</t>
   </si>
@@ -940,6 +940,9 @@
   </si>
   <si>
     <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1867,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1931,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1991,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2057,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2120,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2218,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2277,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2342,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2385,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2460,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2646,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2712,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2770,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2836,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2892,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2967,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3010,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3076,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3132,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3230,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3293,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3359,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K528" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3734,12 +3737,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K528"/>
+  <dimension ref="A2:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A471" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="J486" sqref="J486"/>
+      <selection pane="bottomLeft" activeCell="F490" sqref="F490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,7 +3899,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93.552999999999997</v>
+        <v>97.302999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3906,7 +3909,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>164.625</v>
+        <v>168.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14423,13 +14426,15 @@
       <c r="B485" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C485" s="13"/>
+      <c r="C485" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G485" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H485" s="39">
         <v>1</v>
@@ -14467,13 +14472,15 @@
         <v>45231</v>
       </c>
       <c r="B487" s="20"/>
-      <c r="C487" s="13"/>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H487" s="39"/>
       <c r="I487" s="9"/>
@@ -14485,13 +14492,15 @@
         <v>45261</v>
       </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
@@ -14499,8 +14508,8 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40">
-        <v>45292</v>
+      <c r="A489" s="48" t="s">
+        <v>302</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14518,7 +14527,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14536,7 +14545,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14554,7 +14563,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14572,7 +14581,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14590,7 +14599,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14608,7 +14617,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14626,7 +14635,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14644,7 +14653,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14662,7 +14671,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14680,7 +14689,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14698,7 +14707,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14716,7 +14725,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14734,7 +14743,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14752,7 +14761,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14770,7 +14779,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14788,7 +14797,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14806,7 +14815,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14824,7 +14833,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14842,7 +14851,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14860,7 +14869,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14878,7 +14887,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14896,7 +14905,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14914,7 +14923,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14932,7 +14941,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14950,7 +14959,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14968,7 +14977,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14986,7 +14995,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15004,7 +15013,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15022,7 +15031,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15040,7 +15049,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15058,7 +15067,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15076,7 +15085,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15094,7 +15103,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15112,7 +15121,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15130,7 +15139,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15148,7 +15157,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15166,7 +15175,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15184,7 +15193,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15202,7 +15211,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15217,6 +15226,24 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
+++ b/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -943,6 +943,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/4,11/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
   </si>
 </sst>
 </file>
@@ -3742,7 +3751,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A471" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="F490" sqref="F490"/>
+      <selection pane="bottomLeft" activeCell="F489" sqref="F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,7 +3908,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>97.302999999999997</v>
+        <v>94.802999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14283,11 +14292,15 @@
       <c r="A478" s="40">
         <v>44986</v>
       </c>
-      <c r="B478" s="20"/>
+      <c r="B478" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="C478" s="13">
         <v>1.25</v>
       </c>
-      <c r="D478" s="39"/>
+      <c r="D478" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13">
@@ -14303,11 +14316,15 @@
       <c r="A479" s="40">
         <v>45017</v>
       </c>
-      <c r="B479" s="20"/>
+      <c r="B479" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="C479" s="13">
         <v>1.25</v>
       </c>
-      <c r="D479" s="39"/>
+      <c r="D479" s="39">
+        <v>2</v>
+      </c>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
       <c r="G479" s="13">
@@ -14317,7 +14334,9 @@
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
-      <c r="K479" s="20"/>
+      <c r="K479" s="20" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">

--- a/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
+++ b/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1876,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1940,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2129,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2227,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2286,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2351,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2394,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2655,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2845,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2901,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3085,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3302,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3751,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A471" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="F489" sqref="F489"/>
+      <selection pane="bottomLeft" activeCell="K490" sqref="K490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,7 +3918,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>168.375</v>
+        <v>167.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14548,7 +14548,9 @@
       <c r="A490" s="40">
         <v>45292</v>
       </c>
-      <c r="B490" s="20"/>
+      <c r="B490" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
@@ -14557,10 +14559,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H490" s="39"/>
+      <c r="H490" s="39">
+        <v>1</v>
+      </c>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="49">
+        <v>45293</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
